--- a/data/NewCustomer.xlsx
+++ b/data/NewCustomer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\pointOfSale-workspace\makaia_framework-master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d612d3fce0ded74d/Desktop/Project devops/pos-selenium-tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_F286974EBC6EFB7F337DC01D72E900755A9A1257" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D56AA3B3-BE72-45D5-82D1-F9A6D45DD10B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,21 +33,9 @@
     <t>CustomerName</t>
   </si>
   <si>
-    <t>9976749433</t>
-  </si>
-  <si>
     <t>CustomerDescription</t>
   </si>
   <si>
-    <t>Selenium</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>aravind@gmail.com</t>
-  </si>
-  <si>
     <t>Customer EmailId</t>
   </si>
   <si>
@@ -56,17 +45,37 @@
     <t>CustomerAddress</t>
   </si>
   <si>
-    <t>Aravind</t>
+    <t>9976749222</t>
+  </si>
+  <si>
+    <t>Sarfaraz</t>
+  </si>
+  <si>
+    <t>devops des</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>sarf22@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,14 +98,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,24 +386,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,58 +411,61 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{3FD1E832-BB42-4D73-82ED-99A28095C952}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8cff186d-a7e0-45ea-b789-e61505dbcb46" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8cff186d-a7e0-45ea-b789-e61505dbcb46" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,6 +704,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A7D0E8-963A-4755-9C6A-56D18D470C0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2FCB182-281B-4DF0-8855-C00A301FFD65}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -701,14 +724,6 @@
     <ds:schemaRef ds:uri="8cff186d-a7e0-45ea-b789-e61505dbcb46"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A7D0E8-963A-4755-9C6A-56D18D470C0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
